--- a/JSON/Roles.xlsx
+++ b/JSON/Roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -799,11 +799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" style="3"/>
     <col min="3" max="3" width="49" style="3" customWidth="1"/>
@@ -812,52 +812,49 @@
     <col min="6" max="6" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -866,561 +863,564 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="6">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E17" s="6">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="6">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E21" s="6">
         <v>3</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E25" s="6">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E29" s="6">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="6">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="6">
-        <v>4</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="6">
         <v>-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/JSON/Roles.xlsx
+++ b/JSON/Roles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
   <si>
     <t>Role</t>
   </si>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t>Vampires</t>
+  </si>
+  <si>
+    <t>Cursed</t>
+  </si>
+  <si>
+    <t>Village (until dead, then werewolf)</t>
+  </si>
+  <si>
+    <t>Old Man</t>
+  </si>
+  <si>
+    <t>Dies on night (# of Wolves) + 1</t>
   </si>
 </sst>
 </file>
@@ -797,15 +809,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" style="3"/>
+    <col min="2" max="2" width="17.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="49" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="5"/>
@@ -1404,22 +1416,50 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>51</v>
       </c>
     </row>
